--- a/raw data/human glycogene expression.xlsx
+++ b/raw data/human glycogene expression.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikazhang/Dropbox (MIT)/20.440 Biological Networks/project/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC13865A-34BB-484A-8D16-E48711E8CB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2593CFF8-DDD0-F745-9FB9-CB560A4CE464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
